--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,23 @@
           <t>Hiba</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Időpont</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>403 Client Error: Forbidden for url: https://www.utinform.hu/api/datex2/situation</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-30 17:29:33</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 17:29:33</t>
+          <t>2026-01-30 17:51:40</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 17:51:40</t>
+          <t>2026-01-30 18:23:16</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 18:23:16</t>
+          <t>2026-01-30 19:06:00</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 19:06:00</t>
+          <t>2026-01-30 19:42:50</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 19:42:50</t>
+          <t>2026-01-30 19:59:09</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 19:59:09</t>
+          <t>2026-01-30 20:37:24</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 20:37:24</t>
+          <t>2026-01-30 21:00:28</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 21:00:28</t>
+          <t>2026-01-30 21:35:59</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 21:35:59</t>
+          <t>2026-01-30 21:52:38</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 21:52:38</t>
+          <t>2026-01-30 22:12:08</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 22:12:08</t>
+          <t>2026-01-30 22:46:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 22:46:04</t>
+          <t>2026-01-30 23:02:50</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 23:02:50</t>
+          <t>2026-01-30 23:35:42</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 23:35:42</t>
+          <t>2026-01-30 23:54:12</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-30 23:54:12</t>
+          <t>2026-01-31 01:13:37</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 01:13:37</t>
+          <t>2026-01-31 03:31:22</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 03:31:22</t>
+          <t>2026-01-31 04:50:00</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 04:50:00</t>
+          <t>2026-01-31 05:29:46</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 05:29:46</t>
+          <t>2026-01-31 06:01:50</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 06:01:50</t>
+          <t>2026-01-31 06:54:27</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 06:54:27</t>
+          <t>2026-01-31 07:23:32</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 07:23:32</t>
+          <t>2026-01-31 07:46:15</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 07:46:15</t>
+          <t>2026-01-31 07:58:11</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 07:58:11</t>
+          <t>2026-01-31 08:34:50</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 08:34:50</t>
+          <t>2026-01-31 08:58:37</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 08:58:37</t>
+          <t>2026-01-31 09:32:44</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 09:32:44</t>
+          <t>2026-01-31 09:53:44</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 09:53:44</t>
+          <t>2026-01-31 10:15:22</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 10:15:22</t>
+          <t>2026-01-31 10:46:10</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 10:46:10</t>
+          <t>2026-01-31 11:00:55</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 11:00:55</t>
+          <t>2026-01-31 11:28:45</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 11:28:45</t>
+          <t>2026-01-31 11:44:36</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 11:44:36</t>
+          <t>2026-01-31 11:55:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 11:55:04</t>
+          <t>2026-01-31 12:34:57</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 12:34:57</t>
+          <t>2026-01-31 13:26:45</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 13:26:45</t>
+          <t>2026-01-31 13:56:23</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 13:56:23</t>
+          <t>2026-01-31 14:22:53</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 14:22:53</t>
+          <t>2026-01-31 14:46:54</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 14:46:54</t>
+          <t>2026-01-31 15:00:15</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 15:00:15</t>
+          <t>2026-01-31 15:33:02</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 15:33:02</t>
+          <t>2026-01-31 15:50:24</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 15:50:24</t>
+          <t>2026-01-31 16:01:09</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 16:01:09</t>
+          <t>2026-01-31 16:41:08</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 16:41:08</t>
+          <t>2026-01-31 17:01:20</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 17:01:20</t>
+          <t>2026-01-31 17:32:23</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 17:32:23</t>
+          <t>2026-01-31 17:52:31</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 17:52:31</t>
+          <t>2026-01-31 18:15:31</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 18:15:31</t>
+          <t>2026-01-31 18:51:54</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 18:51:54</t>
+          <t>2026-01-31 19:11:10</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 19:11:10</t>
+          <t>2026-01-31 19:32:39</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 19:32:39</t>
+          <t>2026-01-31 19:46:27</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 19:46:27</t>
+          <t>2026-01-31 19:55:40</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 19:55:40</t>
+          <t>2026-01-31 20:21:12</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 20:21:12</t>
+          <t>2026-01-31 20:44:50</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 20:44:50</t>
+          <t>2026-01-31 20:59:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 20:59:04</t>
+          <t>2026-01-31 21:28:12</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 21:28:12</t>
+          <t>2026-01-31 21:45:53</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 21:45:53</t>
+          <t>2026-01-31 21:56:22</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 21:56:22</t>
+          <t>2026-01-31 22:20:55</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 22:20:55</t>
+          <t>2026-01-31 22:45:19</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 22:45:19</t>
+          <t>2026-01-31 22:59:06</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 22:59:06</t>
+          <t>2026-01-31 23:28:41</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 23:28:41</t>
+          <t>2026-01-31 23:47:27</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 23:47:27</t>
+          <t>2026-01-31 23:58:15</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-31 23:58:15</t>
+          <t>2026-02-01 02:42:25</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 02:42:25</t>
+          <t>2026-02-01 04:52:52</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 04:52:52</t>
+          <t>2026-02-01 05:52:52</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 05:52:52</t>
+          <t>2026-02-01 06:35:47</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 06:35:47</t>
+          <t>2026-02-01 07:24:48</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 07:24:48</t>
+          <t>2026-02-01 07:53:26</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 07:53:26</t>
+          <t>2026-02-01 08:20:51</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 08:20:51</t>
+          <t>2026-02-01 08:53:03</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 08:53:03</t>
+          <t>2026-02-01 09:20:18</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 09:20:18</t>
+          <t>2026-02-01 09:49:24</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 09:49:24</t>
+          <t>2026-02-01 10:01:26</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 10:01:26</t>
+          <t>2026-02-01 10:38:27</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 10:38:27</t>
+          <t>2026-02-01 10:58:15</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 10:58:15</t>
+          <t>2026-02-01 11:24:39</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 11:24:39</t>
+          <t>2026-02-01 11:42:42</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 11:42:42</t>
+          <t>2026-02-01 11:54:46</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 11:54:46</t>
+          <t>2026-02-01 12:34:28</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 12:34:28</t>
+          <t>2026-02-01 13:28:20</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 13:28:20</t>
+          <t>2026-02-01 13:59:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 13:59:04</t>
+          <t>2026-02-01 14:32:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 14:32:04</t>
+          <t>2026-02-01 14:54:52</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 14:54:52</t>
+          <t>2026-02-01 15:18:45</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 15:18:45</t>
+          <t>2026-02-01 15:44:28</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 15:44:28</t>
+          <t>2026-02-01 15:59:44</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 15:59:44</t>
+          <t>2026-02-01 16:38:36</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 16:38:36</t>
+          <t>2026-02-01 17:00:17</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 17:00:17</t>
+          <t>2026-02-01 17:32:42</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 17:32:42</t>
+          <t>2026-02-01 17:53:20</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 17:53:20</t>
+          <t>2026-02-01 18:19:53</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 18:19:53</t>
+          <t>2026-02-01 18:56:38</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 18:56:38</t>
+          <t>2026-02-01 19:23:48</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 19:23:48</t>
+          <t>2026-02-01 19:42:49</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 19:42:49</t>
+          <t>2026-02-01 19:55:03</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 19:55:03</t>
+          <t>2026-02-01 20:19:53</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 20:19:53</t>
+          <t>2026-02-01 20:46:07</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 20:46:07</t>
+          <t>2026-02-01 21:01:13</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 21:01:13</t>
+          <t>2026-02-01 21:33:03</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 21:33:03</t>
+          <t>2026-02-01 21:50:31</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 21:50:31</t>
+          <t>2026-02-01 21:59:59</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 21:59:59</t>
+          <t>2026-02-01 22:33:59</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 22:33:59</t>
+          <t>2026-02-01 22:55:45</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 22:55:45</t>
+          <t>2026-02-01 23:21:25</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 23:21:25</t>
+          <t>2026-02-01 23:44:14</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 23:44:14</t>
+          <t>2026-02-01 23:59:14</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-01 23:59:14</t>
+          <t>2026-02-02 02:44:03</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 02:44:03</t>
+          <t>2026-02-02 04:49:21</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 04:49:21</t>
+          <t>2026-02-02 05:55:40</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 05:55:40</t>
+          <t>2026-02-02 06:58:35</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 06:58:35</t>
+          <t>2026-02-02 07:53:05</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 07:53:05</t>
+          <t>2026-02-02 08:30:10</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 08:30:10</t>
+          <t>2026-02-02 09:11:48</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 09:11:48</t>
+          <t>2026-02-02 10:07:15</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 10:07:15</t>
+          <t>2026-02-02 11:02:51</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 11:02:51</t>
+          <t>2026-02-02 11:42:53</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 11:42:53</t>
+          <t>2026-02-02 12:01:54</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 12:01:54</t>
+          <t>2026-02-02 13:21:12</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 13:21:12</t>
+          <t>2026-02-02 14:10:34</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 14:10:34</t>
+          <t>2026-02-02 14:59:58</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 14:59:58</t>
+          <t>2026-02-02 15:43:48</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 15:43:48</t>
+          <t>2026-02-02 16:05:29</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 16:05:29</t>
+          <t>2026-02-02 16:58:11</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 16:58:11</t>
+          <t>2026-02-02 17:40:35</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 17:40:35</t>
+          <t>2026-02-02 18:22:22</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 18:22:22</t>
+          <t>2026-02-02 23:05:58</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 23:05:58</t>
+          <t>2026-02-02 23:35:04</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 23:35:04</t>
+          <t>2026-02-02 23:56:27</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 23:56:27</t>
+          <t>2026-02-03 02:00:25</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 02:00:25</t>
+          <t>2026-02-03 04:21:25</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 04:21:25</t>
+          <t>2026-02-03 05:32:03</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 05:32:03</t>
+          <t>2026-02-03 06:28:29</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 06:28:29</t>
+          <t>2026-02-03 07:26:38</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 07:26:38</t>
+          <t>2026-02-03 08:01:00</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 08:01:00</t>
+          <t>2026-02-03 08:51:59</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 08:51:59</t>
+          <t>2026-02-03 09:27:00</t>
         </is>
       </c>
     </row>

--- a/utinformacio.xlsx
+++ b/utinformacio.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03 09:27:00</t>
+          <t>2026-02-03 10:06:23</t>
         </is>
       </c>
     </row>
